--- a/Results/IBA Mock/Mock 5.xlsx
+++ b/Results/IBA Mock/Mock 5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\results giver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VH Website\vh-website\Results\IBA Mock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D16FD3-CA15-41D4-8182-23FBE4D629F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B514D6-0757-4F61-A4FC-FF06B1547A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,7 +1143,7 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I19" si="2">G2*1 + H2*($Z$6)</f>
+        <f t="shared" ref="I2:I25" si="2">G2*1 + H2*($Z$6)</f>
         <v>6</v>
       </c>
       <c r="J2">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="W2">
         <f t="shared" ref="W2:W31" si="10">_xlfn.RANK.EQ(V2, $V$2:$V$1000, 0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X2" t="s">
         <v>25</v>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="Q3">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R3" s="19">
         <v>4</v>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
@@ -2312,7 +2312,7 @@
       </c>
       <c r="Q18">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18" s="19">
         <v>9.5</v>
@@ -2390,7 +2390,7 @@
       </c>
       <c r="Q19">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R19" s="19">
         <v>7</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" ref="I20:I31" si="13">G20*1 + H20*(T24)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M31" si="14">K20*1 + L20*(-0.25)</f>
+        <f t="shared" ref="M20:M31" si="13">K20*1 + L20*(-0.25)</f>
         <v>0</v>
       </c>
       <c r="N20">
@@ -2493,12 +2493,12 @@
         <v>6</v>
       </c>
       <c r="I21">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
       <c r="J21">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2507,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="N21">
@@ -2516,11 +2516,11 @@
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
-        <v>17.75</v>
+        <v>16.25</v>
       </c>
       <c r="P21">
         <f t="shared" si="7"/>
-        <v>25.357142857142854</v>
+        <v>23.214285714285715</v>
       </c>
       <c r="Q21">
         <f t="shared" si="8"/>
@@ -2536,11 +2536,11 @@
       <c r="U21" s="11"/>
       <c r="V21">
         <f t="shared" si="11"/>
-        <v>37.25</v>
+        <v>35.75</v>
       </c>
       <c r="W21">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="28.2" customHeight="1" thickBot="1">
@@ -2571,12 +2571,12 @@
         <v>3</v>
       </c>
       <c r="I22">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>2.25</v>
       </c>
       <c r="J22">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -2585,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="M22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="N22">
@@ -2594,11 +2594,11 @@
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="P22">
         <f t="shared" si="7"/>
-        <v>14.642857142857144</v>
+        <v>13.571428571428571</v>
       </c>
       <c r="Q22">
         <f t="shared" si="8"/>
@@ -2614,7 +2614,7 @@
       <c r="U22" s="11"/>
       <c r="V22">
         <f t="shared" si="11"/>
-        <v>24.25</v>
+        <v>23.5</v>
       </c>
       <c r="W22">
         <f t="shared" si="10"/>
@@ -2649,12 +2649,12 @@
         <v>8</v>
       </c>
       <c r="I23">
-        <f t="shared" si="13"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>-1</v>
       </c>
       <c r="J23">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -2663,7 +2663,7 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.25</v>
       </c>
       <c r="N23">
@@ -2672,15 +2672,15 @@
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>10.75</v>
+        <v>8.75</v>
       </c>
       <c r="P23">
         <f t="shared" si="7"/>
-        <v>15.357142857142858</v>
+        <v>12.5</v>
       </c>
       <c r="Q23">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R23" s="19">
         <v>9.5</v>
@@ -2692,7 +2692,7 @@
       <c r="U23" s="11"/>
       <c r="V23">
         <f t="shared" si="11"/>
-        <v>27.75</v>
+        <v>25.75</v>
       </c>
       <c r="W23">
         <f t="shared" si="10"/>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N24">
@@ -2783,12 +2783,12 @@
         <v>3</v>
       </c>
       <c r="I25">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>6.25</v>
       </c>
       <c r="J25">
         <f t="shared" si="3"/>
-        <v>28.000000000000004</v>
+        <v>25</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="M25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>5.5</v>
       </c>
       <c r="N25">
@@ -2806,11 +2806,11 @@
       </c>
       <c r="O25">
         <f t="shared" si="6"/>
-        <v>22.75</v>
+        <v>22</v>
       </c>
       <c r="P25">
         <f t="shared" si="7"/>
-        <v>32.5</v>
+        <v>31.428571428571427</v>
       </c>
       <c r="Q25">
         <f t="shared" si="8"/>
@@ -2826,11 +2826,11 @@
       <c r="U25" s="11"/>
       <c r="V25">
         <f t="shared" si="11"/>
-        <v>38.75</v>
+        <v>38</v>
       </c>
       <c r="W25">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" thickBot="1">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I20:I31" si="14">G26*1 + H26*(T30)</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N26">
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J27">
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N27">
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J28">
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N28">
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J29">
@@ -3001,7 +3001,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N29">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J30">
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N30">
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J31">
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N31">
